--- a/Scriptie/2_LaTeX Bachelorproef/Bijlagen/metingen_preimplementatie.xlsx
+++ b/Scriptie/2_LaTeX Bachelorproef/Bijlagen/metingen_preimplementatie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/stijn_coppens_student_hogent_be/Documents/2023/Bachelorproef/Scriptie/3_Metingen en dergelijke/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/stijn_coppens_student_hogent_be/Documents/2023/Bachelorproef/Scriptie/2_LaTeX Bachelorproef/Bijlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1491" documentId="8_{C65F7E1B-A6BE-426F-9CFF-D1DC12FB3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A653EE-D8E3-409D-9474-000EB3C2F248}"/>
+  <xr:revisionPtr revIDLastSave="1499" documentId="8_{C65F7E1B-A6BE-426F-9CFF-D1DC12FB3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7DF29F-36FE-46B7-8DA3-61AB8D5FB20F}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{2B11156B-3A53-4B26-8968-BA2F706718BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{2B11156B-3A53-4B26-8968-BA2F706718BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Grafieken!$C$21:$C$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Grafieken!$D$21:$D$33</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Grafieken!$G$21:$G$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Grafieken!$E$21:$E$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Grafieken!$D$21:$D$33</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Grafieken!$H$21:$H$33</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Grafieken!$F$21:$F$33</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Grafieken!$E$21:$E$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Grafieken!$D$21:$D$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Grafieken!$G$21:$G$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="385">
   <si>
     <t>Datum</t>
   </si>
@@ -1442,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,17 +1519,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1543,89 +1532,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="128">
     <dxf>
       <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1865,7 +1772,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1873,29 +1787,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1917,14 +1808,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1935,15 +1826,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2026,6 +1919,54 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2748,7 +2689,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3939,7 +3879,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4075,7 +4015,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4198,7 +4138,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8773,16 +8713,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12060</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58241</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>5522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>224693</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2515</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1379238</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2516</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8854,8 +8794,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="199922" y="6902657"/>
-              <a:ext cx="4572907" cy="2718498"/>
+              <a:off x="199922" y="6934407"/>
+              <a:ext cx="4572907" cy="2762948"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8932,8 +8872,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="19090762" y="6354884"/>
-              <a:ext cx="4946430" cy="3176465"/>
+              <a:off x="19080504" y="6319715"/>
+              <a:ext cx="4938615" cy="3185746"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9010,8 +8950,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="189037" y="9681236"/>
-              <a:ext cx="4572907" cy="2721219"/>
+              <a:off x="189037" y="9757436"/>
+              <a:ext cx="4572907" cy="2733919"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9088,8 +9028,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4776597" y="9676353"/>
-              <a:ext cx="4538087" cy="2721219"/>
+              <a:off x="4776597" y="9752553"/>
+              <a:ext cx="4538087" cy="2733919"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9166,8 +9106,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="178152" y="12459814"/>
-              <a:ext cx="4572907" cy="2721220"/>
+              <a:off x="178152" y="12548714"/>
+              <a:ext cx="4572907" cy="2733920"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9244,8 +9184,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4765712" y="12454931"/>
-              <a:ext cx="4538087" cy="2721220"/>
+              <a:off x="4765712" y="12543831"/>
+              <a:ext cx="4538087" cy="2733920"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9316,41 +9256,37 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5B5F6CD-8ACE-4E45-8B01-474BA05E36A6}" name="Table2" displayName="Table2" ref="A1:K17" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5B5F6CD-8ACE-4E45-8B01-474BA05E36A6}" name="Table2" displayName="Table2" ref="A1:K17" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A1:K17" xr:uid="{E5B5F6CD-8ACE-4E45-8B01-474BA05E36A6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D78D2B78-ABE0-4C9F-AB45-D50B0E032C81}" name="Datum" dataDxfId="103"/>
-    <tableColumn id="11" xr3:uid="{A0FCC866-D19A-4F98-A878-53A624EE44F9}" name="pagina" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{F95525B3-F970-4D18-A087-BFF197A681F0}" name="Aantal toevoegingen" dataDxfId="101">
+    <tableColumn id="1" xr3:uid="{D78D2B78-ABE0-4C9F-AB45-D50B0E032C81}" name="Datum" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{A0FCC866-D19A-4F98-A878-53A624EE44F9}" name="pagina" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{F95525B3-F970-4D18-A087-BFF197A681F0}" name="Aantal toevoegingen" dataDxfId="123">
       <calculatedColumnFormula array="1">INDIRECT("'" &amp; Table2[[#This Row],[pagina]] &amp; "'!J5")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{25727468-A7AC-4814-A38A-F4F31CA93F5F}" name="Tijdsduur voor toevoeging" dataDxfId="100">
+    <tableColumn id="3" xr3:uid="{25727468-A7AC-4814-A38A-F4F31CA93F5F}" name="Tijdsduur voor toevoeging" dataDxfId="122">
       <calculatedColumnFormula>'07022024'!K5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8BD552-F257-4DFE-A3F3-61C735897D2F}" name="Aantal wijzigingen" dataDxfId="99">
+    <tableColumn id="4" xr3:uid="{2A8BD552-F257-4DFE-A3F3-61C735897D2F}" name="Aantal wijzigingen" dataDxfId="121">
       <calculatedColumnFormula>'08022024'!J6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7B7753AD-A315-4D3F-B0A1-30AC7CBFBF1B}" name="Tijdsduur voor wijziging" dataDxfId="98">
+    <tableColumn id="5" xr3:uid="{7B7753AD-A315-4D3F-B0A1-30AC7CBFBF1B}" name="Tijdsduur voor wijziging" dataDxfId="120">
       <calculatedColumnFormula>'08022024'!K5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D625FED6-A7E3-4D71-9546-ABADB957BBB4}" name="Aantal verwijderingen" dataDxfId="97">
+    <tableColumn id="6" xr3:uid="{D625FED6-A7E3-4D71-9546-ABADB957BBB4}" name="Aantal verwijderingen" dataDxfId="119">
       <calculatedColumnFormula>'07022024'!J7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7A9AD3D5-10FE-4949-955B-E8F2D5547F04}" name="Tijdsduur voor verwijderen" dataDxfId="96">
+    <tableColumn id="7" xr3:uid="{7A9AD3D5-10FE-4949-955B-E8F2D5547F04}" name="Tijdsduur voor verwijderen" dataDxfId="118">
       <calculatedColumnFormula>'07022024'!K7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B66100FA-467D-44B8-86F2-E8EE6C78E6D7}" name="Tijdsduur updates" dataDxfId="95">
+    <tableColumn id="8" xr3:uid="{B66100FA-467D-44B8-86F2-E8EE6C78E6D7}" name="Tijdsduur updates" dataDxfId="117">
       <calculatedColumnFormula>'07022024'!K8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{608BB356-C6D5-4A54-82AF-433FB5604410}" name="Totaal aantal verwerkte aanvragen" dataDxfId="94">
+    <tableColumn id="9" xr3:uid="{608BB356-C6D5-4A54-82AF-433FB5604410}" name="Totaal aantal verwerkte aanvragen" dataDxfId="116">
       <calculatedColumnFormula>'07022024'!J9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BADA0CE9-E5D4-4556-B230-1C87E7357A3A}" name="Totaal tijdsduur" dataDxfId="93">
+    <tableColumn id="10" xr3:uid="{BADA0CE9-E5D4-4556-B230-1C87E7357A3A}" name="Totaal tijdsduur" dataDxfId="115">
       <calculatedColumnFormula>'07022024'!K9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9359,36 +9295,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE7BDC3D-39E6-48BA-9C89-45C7D5EF874F}" name="Table145" displayName="Table145" ref="A1:F28" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5CCE38C8-27EF-41B0-BC71-7AF08B5333A6}" name="Table14516" displayName="Table14516" ref="A1:F28" totalsRowShown="0" headerRowDxfId="64">
   <autoFilter ref="A1:F28" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B3A7ABB-C371-4A45-9D2D-B19C89F85E2F}" name="Datum" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{C5C72EB4-853B-4912-845B-230FDFDE48D1}" name="Datum" dataDxfId="63">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CDA06A3E-15DF-45A5-8BCF-D4AA44DF6789}" name="Actie" dataDxfId="90">
+    <tableColumn id="2" xr3:uid="{BF7F9651-EA32-4558-9BDA-862DAA16FBF7}" name="Actie" dataDxfId="62">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9293EEFE-FF0E-4252-9E8F-CEAC7F06C8F0}" name="Command" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{D4C11C17-9153-45C4-9580-7FDF4B628FE5}" name="Tijdsduur" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{C151002B-3F02-4C8F-9EBC-A004DFEAE77E}" name="Opmerking1"/>
-    <tableColumn id="6" xr3:uid="{9C5D85F2-B743-4407-AFDC-880181162DBA}" name="Opmerking2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5CCE38C8-27EF-41B0-BC71-7AF08B5333A6}" name="Table14516" displayName="Table14516" ref="A1:F28" totalsRowShown="0" headerRowDxfId="87">
-  <autoFilter ref="A1:F28" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C5C72EB4-853B-4912-845B-230FDFDE48D1}" name="Datum" dataDxfId="86">
-      <calculatedColumnFormula>NOW()</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF7F9651-EA32-4558-9BDA-862DAA16FBF7}" name="Actie" dataDxfId="85">
-      <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{D6515B30-AF09-4215-8DC8-990BE84F711E}" name="Command" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{F18789D1-A161-4BC8-8E5F-289B039CB229}" name="Tijdsduur" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{D6515B30-AF09-4215-8DC8-990BE84F711E}" name="Command" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{F18789D1-A161-4BC8-8E5F-289B039CB229}" name="Tijdsduur" dataDxfId="60"/>
     <tableColumn id="5" xr3:uid="{A0536688-60FB-4566-845D-71D7B16257A0}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{080AD614-D985-4777-BB5A-0EE1F689961B}" name="Opmerking2"/>
   </tableColumns>
@@ -9396,18 +9313,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{25BEEDCB-8B87-4E7C-86FB-D0039C6F38D5}" name="Table14515" displayName="Table14515" ref="A1:F36" totalsRowShown="0" headerRowDxfId="82">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{25BEEDCB-8B87-4E7C-86FB-D0039C6F38D5}" name="Table14515" displayName="Table14515" ref="A1:F36" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="A1:F36" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4558D523-1CEB-4692-9FC2-54C423B15FC1}" name="Datum" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{4558D523-1CEB-4692-9FC2-54C423B15FC1}" name="Datum" dataDxfId="58">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{45B96432-FC63-4A7E-8E4A-BB105E0090DC}" name="Actie" dataDxfId="80">
+    <tableColumn id="2" xr3:uid="{45B96432-FC63-4A7E-8E4A-BB105E0090DC}" name="Actie" dataDxfId="57">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC56BE57-FEFB-484D-9408-C96465DD6C2B}" name="Command" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{391A4877-ED86-4A89-B0B1-B9C8DEAB753C}" name="Tijdsduur" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{EC56BE57-FEFB-484D-9408-C96465DD6C2B}" name="Command" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{391A4877-ED86-4A89-B0B1-B9C8DEAB753C}" name="Tijdsduur" dataDxfId="55"/>
     <tableColumn id="5" xr3:uid="{7C5D84AE-B38F-4588-BF86-C56261900DF5}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{64C6B484-A5EB-4A28-B35B-D867725CFF35}" name="Opmerking2"/>
   </tableColumns>
@@ -9415,18 +9332,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0F25DDF7-8CC6-472B-811A-7D0EE6BB4D0A}" name="Table14514" displayName="Table14514" ref="A1:F43" totalsRowShown="0" headerRowDxfId="77">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0F25DDF7-8CC6-472B-811A-7D0EE6BB4D0A}" name="Table14514" displayName="Table14514" ref="A1:F43" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:F43" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3462C5C4-9DF8-403A-A593-AB2D68343BFD}" name="Datum" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{3462C5C4-9DF8-403A-A593-AB2D68343BFD}" name="Datum" dataDxfId="53">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D017C2B8-F919-4C16-A614-9E6FD4D1A938}" name="Actie" dataDxfId="75">
+    <tableColumn id="2" xr3:uid="{D017C2B8-F919-4C16-A614-9E6FD4D1A938}" name="Actie" dataDxfId="52">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{82C7DF18-D925-4F7A-91C8-216A286E9D0D}" name="Command" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{0F8B2C67-DEAB-4946-8866-02406421954C}" name="Tijdsduur" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{82C7DF18-D925-4F7A-91C8-216A286E9D0D}" name="Command" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{0F8B2C67-DEAB-4946-8866-02406421954C}" name="Tijdsduur" dataDxfId="50"/>
     <tableColumn id="5" xr3:uid="{6D19F88A-F9B4-4F62-9EF7-0C43E1E1E386}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{4DE378EA-A464-4C1F-86AA-0E4AB9F6EBFA}" name="Opmerking2"/>
   </tableColumns>
@@ -9434,18 +9351,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B95DCA1F-DD90-4483-BF66-5296D7FD7CEB}" name="Table14513" displayName="Table14513" ref="A1:F25" totalsRowShown="0" headerRowDxfId="72">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B95DCA1F-DD90-4483-BF66-5296D7FD7CEB}" name="Table14513" displayName="Table14513" ref="A1:F25" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:F25" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{18F95978-B1FD-4B9E-B862-CA7A856749FE}" name="Datum" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{18F95978-B1FD-4B9E-B862-CA7A856749FE}" name="Datum" dataDxfId="48">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D51D50DA-6DC6-41A7-9305-CC9E5C8AB1C7}" name="Actie" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{D51D50DA-6DC6-41A7-9305-CC9E5C8AB1C7}" name="Actie" dataDxfId="47">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BBD998C0-A1A2-46F6-B49A-6E97823A60AC}" name="Command" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{4B2C7B67-B0F5-45C5-ACDB-AF186E2E283E}" name="Tijdsduur" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{BBD998C0-A1A2-46F6-B49A-6E97823A60AC}" name="Command" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{4B2C7B67-B0F5-45C5-ACDB-AF186E2E283E}" name="Tijdsduur" dataDxfId="45"/>
     <tableColumn id="5" xr3:uid="{DFC85178-D13A-481A-A655-EBF97DD14718}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{24E7AF52-F3D4-4576-ABA9-B00A6BF137B1}" name="Opmerking2"/>
   </tableColumns>
@@ -9453,18 +9370,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AC5EC5C8-7413-4DEC-9067-25EFF5DE2CE9}" name="Table14512" displayName="Table14512" ref="A1:F21" totalsRowShown="0" headerRowDxfId="67">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AC5EC5C8-7413-4DEC-9067-25EFF5DE2CE9}" name="Table14512" displayName="Table14512" ref="A1:F21" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="A1:F21" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CDE71FCE-C0BE-4556-803C-EA73B0D24B29}" name="Datum" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{CDE71FCE-C0BE-4556-803C-EA73B0D24B29}" name="Datum" dataDxfId="43">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6AD9A767-716B-4F2C-A29E-8BCEE6213632}" name="Actie" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{6AD9A767-716B-4F2C-A29E-8BCEE6213632}" name="Actie" dataDxfId="42">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{30604B76-2329-44BD-8A72-7BE6680EAA67}" name="Command" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{561CEDEF-5E10-4CA4-A8FC-0C86ADF308F9}" name="Tijdsduur" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{30604B76-2329-44BD-8A72-7BE6680EAA67}" name="Command" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{561CEDEF-5E10-4CA4-A8FC-0C86ADF308F9}" name="Tijdsduur" dataDxfId="40"/>
     <tableColumn id="5" xr3:uid="{0242DCD2-33F3-4A9D-9B28-1321DE736735}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{BEAD2601-011E-49D0-AAF5-D24637328665}" name="Opmerking2"/>
   </tableColumns>
@@ -9472,18 +9389,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{40968F2E-A176-40EE-87CF-55DA77ED74C1}" name="Table14511" displayName="Table14511" ref="A1:F34" totalsRowShown="0" headerRowDxfId="62">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{40968F2E-A176-40EE-87CF-55DA77ED74C1}" name="Table14511" displayName="Table14511" ref="A1:F34" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:F34" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{30C2D434-2FF4-4014-B7B6-BFE3F83A1ED7}" name="Datum" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{30C2D434-2FF4-4014-B7B6-BFE3F83A1ED7}" name="Datum" dataDxfId="38">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EAC89E83-6E5A-4811-ADB4-D4433C8190AB}" name="Actie" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{EAC89E83-6E5A-4811-ADB4-D4433C8190AB}" name="Actie" dataDxfId="37">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA0EF23-F65E-4B2A-9893-8BC13E9307A0}" name="Command" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{0BB7B1AA-D580-4837-BFD0-27D137B3FE69}" name="Tijdsduur" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{BDA0EF23-F65E-4B2A-9893-8BC13E9307A0}" name="Command" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{0BB7B1AA-D580-4837-BFD0-27D137B3FE69}" name="Tijdsduur" dataDxfId="35"/>
     <tableColumn id="5" xr3:uid="{C564F63F-F941-4C36-B7E1-963801C1E015}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{A8B156AC-29E2-4499-879D-FC1AC5BF3A9C}" name="Opmerking2"/>
   </tableColumns>
@@ -9491,18 +9408,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{90A863FB-8996-475B-851E-BA70CF1C4A00}" name="Table14510" displayName="Table14510" ref="A1:F26" totalsRowShown="0" headerRowDxfId="57">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{90A863FB-8996-475B-851E-BA70CF1C4A00}" name="Table14510" displayName="Table14510" ref="A1:F26" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:F26" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{55C3F17C-B129-4BCD-8D7A-A5958B9DFE6C}" name="Datum" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{55C3F17C-B129-4BCD-8D7A-A5958B9DFE6C}" name="Datum" dataDxfId="33">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{044CD7D8-1C06-4666-B244-58C8C076D753}" name="Actie" dataDxfId="55">
+    <tableColumn id="2" xr3:uid="{044CD7D8-1C06-4666-B244-58C8C076D753}" name="Actie" dataDxfId="32">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{74E263C9-3DE3-4819-848F-61C3F383F75A}" name="Command" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{B35BF8B4-BA7D-414F-988F-36B85CBC1270}" name="Tijdsduur" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{74E263C9-3DE3-4819-848F-61C3F383F75A}" name="Command" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{B35BF8B4-BA7D-414F-988F-36B85CBC1270}" name="Tijdsduur" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{1AB1F16F-1E6F-4B13-8A61-A0B8E0A36967}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{A9E750EE-9F35-4199-B5BD-12BD3AAA14D0}" name="Opmerking2"/>
   </tableColumns>
@@ -9510,18 +9427,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04521E62-4D2E-4C2E-8BE2-DF4150335CDA}" name="Table1459" displayName="Table1459" ref="A1:F17" totalsRowShown="0" headerRowDxfId="52">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{04521E62-4D2E-4C2E-8BE2-DF4150335CDA}" name="Table1459" displayName="Table1459" ref="A1:F17" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:F17" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8BA86A79-3DC9-4F09-A589-F44FFB5E6B9C}" name="Datum" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{8BA86A79-3DC9-4F09-A589-F44FFB5E6B9C}" name="Datum" dataDxfId="28">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C361E78D-AF94-41E7-A7C2-56DCABA347F2}" name="Actie" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{C361E78D-AF94-41E7-A7C2-56DCABA347F2}" name="Actie" dataDxfId="27">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{02D22A6D-67B8-447B-8F8B-D0414BF324D7}" name="Command" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{C4BDF879-BF6C-491A-AC1A-FD799407208A}" name="Tijdsduur" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{02D22A6D-67B8-447B-8F8B-D0414BF324D7}" name="Command" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{C4BDF879-BF6C-491A-AC1A-FD799407208A}" name="Tijdsduur" dataDxfId="25"/>
     <tableColumn id="5" xr3:uid="{CFFC700A-68D0-459D-9E33-FA8AEE302B65}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{F686FCE6-C6EB-4536-ACE7-A15420BF2214}" name="Opmerking2"/>
   </tableColumns>
@@ -9529,16 +9446,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5B59C2B-08D1-4D64-A7D2-07885E1344F1}" name="Table1458" displayName="Table1458" ref="A1:F8" totalsRowShown="0" headerRowDxfId="47">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D5B59C2B-08D1-4D64-A7D2-07885E1344F1}" name="Table1458" displayName="Table1458" ref="A1:F8" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:F8" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A959324F-0055-4A88-AA15-64D611774224}" name="Datum" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{2E0F5773-42EC-48EB-B57E-119DDE0DA456}" name="Actie" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{A959324F-0055-4A88-AA15-64D611774224}" name="Datum" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2E0F5773-42EC-48EB-B57E-119DDE0DA456}" name="Actie" dataDxfId="22">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{28A3B385-04C3-4F75-A96E-1C9F09954923}" name="Command" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{965780C1-8D9D-4FE4-959C-C77C13631475}" name="Tijdsduur" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{28A3B385-04C3-4F75-A96E-1C9F09954923}" name="Command" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{965780C1-8D9D-4FE4-959C-C77C13631475}" name="Tijdsduur" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{DD322B02-A698-4D8D-84E8-B604441B7C76}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{12143BE0-9064-4E1D-B39A-3FAB46B8E8D2}" name="Opmerking2"/>
   </tableColumns>
@@ -9546,32 +9463,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{60FD9C97-6B11-4556-A65B-9BC7985D47A5}" name="Table217" displayName="Table217" ref="A1:G17" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
-  <autoFilter ref="A1:G17" xr:uid="{E5B5F6CD-8ACE-4E45-8B01-474BA05E36A6}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5A185C09-435C-44B4-8974-301483F3D945}" name="Datum" dataDxfId="138"/>
-    <tableColumn id="11" xr3:uid="{1196757F-CCED-4497-916E-3C79E3931F4E}" name="pagina" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{9B6037C0-7BA6-46DC-BA8A-37720BE76D68}" name="Tijdsduur voor toevoegingen" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{0B7BD722-152D-4BF4-A281-27266BEF2492}" name="Tijdsduur voor wijzigingen" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{3B8B7A43-69FE-438D-ABB7-0464BD92280A}" name="Tijdsduur voor verwijderingen" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{6161E966-2BC1-4C7B-8D42-D3398134277C}" name="Tijdsduur updates" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{7DB83AC6-B858-4118-99DF-91E801401CE2}" name="Totaal tijdsduur" dataDxfId="132"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AE3E25F1-16BF-4A69-A36A-BA59F25084F8}" name="Table1457" displayName="Table1457" ref="A1:F29" totalsRowShown="0" headerRowDxfId="42">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AE3E25F1-16BF-4A69-A36A-BA59F25084F8}" name="Table1457" displayName="Table1457" ref="A1:F29" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:F29" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C5A20934-9077-4124-BEDC-2A6FA06CF278}" name="Datum" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{24B21F3F-A9A2-4B11-B83D-BD85B8782E3C}" name="Actie" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{C5A20934-9077-4124-BEDC-2A6FA06CF278}" name="Datum" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{24B21F3F-A9A2-4B11-B83D-BD85B8782E3C}" name="Actie" dataDxfId="17">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4FEB266B-BBC5-4C32-AE52-D10A2FCA9E91}" name="Command" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{E147C120-0D82-436C-AE28-DC3FE3FFBCDE}" name="Tijdsduur" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{4FEB266B-BBC5-4C32-AE52-D10A2FCA9E91}" name="Command" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E147C120-0D82-436C-AE28-DC3FE3FFBCDE}" name="Tijdsduur" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{AF108D58-62B5-4EB7-95AF-EF0D729C29C3}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{72D67268-9A5C-4A6B-8695-0662E1E1A462}" name="Opmerking2"/>
   </tableColumns>
@@ -9579,18 +9480,34 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{58EE1D1B-A953-4F85-B12D-8CF6A08C9740}" name="Table1456" displayName="Table1456" ref="A1:F34" totalsRowShown="0" headerRowDxfId="37">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{60FD9C97-6B11-4556-A65B-9BC7985D47A5}" name="Table217" displayName="Table217" ref="A1:G17" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+  <autoFilter ref="A1:G17" xr:uid="{E5B5F6CD-8ACE-4E45-8B01-474BA05E36A6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5A185C09-435C-44B4-8974-301483F3D945}" name="Datum" dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{1196757F-CCED-4497-916E-3C79E3931F4E}" name="pagina" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{9B6037C0-7BA6-46DC-BA8A-37720BE76D68}" name="Tijdsduur voor toevoegingen" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{0B7BD722-152D-4BF4-A281-27266BEF2492}" name="Tijdsduur voor wijzigingen" dataDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{3B8B7A43-69FE-438D-ABB7-0464BD92280A}" name="Tijdsduur voor verwijderingen" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{6161E966-2BC1-4C7B-8D42-D3398134277C}" name="Tijdsduur updates" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{7DB83AC6-B858-4118-99DF-91E801401CE2}" name="Totaal tijdsduur" dataDxfId="106"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{58EE1D1B-A953-4F85-B12D-8CF6A08C9740}" name="Table1456" displayName="Table1456" ref="A1:F34" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:F34" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E13FE21-D7F6-4B2F-8FB3-83E062DE7D4D}" name="Datum" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{2E13FE21-D7F6-4B2F-8FB3-83E062DE7D4D}" name="Datum" dataDxfId="13">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8D46EBA2-7343-40CD-8B43-A18828C14D42}" name="Actie" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{8D46EBA2-7343-40CD-8B43-A18828C14D42}" name="Actie" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{603954BB-4990-4FCB-87DC-083EE7BE5364}" name="Command" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{3A05C20B-6B50-4827-A08E-1C3E0FBE0735}" name="Tijdsduur" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{603954BB-4990-4FCB-87DC-083EE7BE5364}" name="Command" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3A05C20B-6B50-4827-A08E-1C3E0FBE0735}" name="Tijdsduur" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{0FD6DAD9-3100-4C6B-BDDD-60D07BD62E90}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{4F67BB6A-E87F-4BF2-8536-A8F292E8EF4E}" name="Opmerking2"/>
   </tableColumns>
@@ -9598,16 +9515,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4A906162-8C55-4D31-8B74-6EBBA6FFBA2A}" name="Table14" displayName="Table14" ref="A1:F31" totalsRowShown="0" headerRowDxfId="32">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4A906162-8C55-4D31-8B74-6EBBA6FFBA2A}" name="Table14" displayName="Table14" ref="A1:F31" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:F31" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B4752309-6451-4960-A216-BB6F71F3E539}" name="Datum" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{C2CBEBD3-269C-4ECE-B9CB-2068D2DF0AA0}" name="Actie" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{B4752309-6451-4960-A216-BB6F71F3E539}" name="Datum" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C2CBEBD3-269C-4ECE-B9CB-2068D2DF0AA0}" name="Actie" dataDxfId="7">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{83213F11-B23A-4630-98D4-2BB4775D64B0}" name="Command" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{1F0D4896-8A4A-4A01-BFC4-5CB0C789920E}" name="Tijdsduur" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{83213F11-B23A-4630-98D4-2BB4775D64B0}" name="Command" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1F0D4896-8A4A-4A01-BFC4-5CB0C789920E}" name="Tijdsduur" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{7A98BE10-2779-44FD-A6F6-F4BB90B97F77}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{258825D9-DB74-41AE-99F4-B6C0CD8864EB}" name="Opmerking2"/>
   </tableColumns>
@@ -9615,16 +9532,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0" headerRowDxfId="27">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:F28" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{95C1020F-166E-4B9A-A951-EA488AD5B306}" name="Datum" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{95C1020F-166E-4B9A-A951-EA488AD5B306}" name="Datum" dataDxfId="3">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{84E2B627-9135-4186-B3FA-0CD80BBB65AA}" name="Actie" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{43661A0F-4FB9-4AE8-B041-461E20DB2B34}" name="Command" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{4CB1C556-821A-4D72-8A46-DBF71D0CF28A}" name="Tijdsduur" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{84E2B627-9135-4186-B3FA-0CD80BBB65AA}" name="Actie" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{43661A0F-4FB9-4AE8-B041-461E20DB2B34}" name="Command" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4CB1C556-821A-4D72-8A46-DBF71D0CF28A}" name="Tijdsduur" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D2D3AFCA-8F37-493F-8304-EE9CF40A8EBE}" name="Opmerking1"/>
     <tableColumn id="6" xr3:uid="{14451886-1FBC-4EDF-B567-2FDBF09FBA2D}" name="Opmerking2"/>
   </tableColumns>
@@ -9633,118 +9550,99 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{03D978A8-0701-4AEE-B4F0-294C5AC956F8}" name="Table21718" displayName="Table21718" ref="I1:S17" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
-  <autoFilter ref="I1:S17" xr:uid="{03D978A8-0701-4AEE-B4F0-294C5AC956F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3465FE0-A033-48A4-9893-A41D62201A03}" name="Table2171819" displayName="Table2171819" ref="A20:K36" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+  <autoFilter ref="A20:K36" xr:uid="{A3465FE0-A033-48A4-9893-A41D62201A03}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9CD9360E-7539-416B-BC73-B86C330B66F9}" name="Datum" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{713AE2AD-76CC-46E0-A43A-2CFB272743B4}" name="pagina" dataDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{CBBEBB9A-ED08-4939-A131-A3916290ED14}" name="Aantal toevoegingen" dataDxfId="127">
-      <calculatedColumnFormula array="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{C0D765B5-8075-459C-9726-29837F3A300F}" name="Tijdsduur voor toevoeging" dataDxfId="126">
-      <calculatedColumnFormula>'07022024'!W5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{D3F9957E-FCFB-4496-9318-919376F24DAF}" name="Aantal wijzigingen" dataDxfId="125">
-      <calculatedColumnFormula>'08022024'!V6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E2D591F-857E-455A-9127-83904DE5AF16}" name="Tijdsduur voor wijziging" dataDxfId="124">
-      <calculatedColumnFormula>'08022024'!W5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{DAA8B99B-1454-4F7E-9551-E4CB5BF2D2C8}" name="Aantal verwijderingen" dataDxfId="123">
-      <calculatedColumnFormula>'07022024'!V7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{E6B3D19D-CE8E-43B4-805C-D34B042CF7B4}" name="Tijdsduur voor verwijderen" dataDxfId="122">
-      <calculatedColumnFormula>'07022024'!W7</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{861267C9-2AA4-48B8-9582-19FEA88E489D}" name="Tijdsduur updates" dataDxfId="121">
-      <calculatedColumnFormula>'07022024'!W8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{CFE335CB-34CB-425A-B9B8-021A04985DAA}" name="Totaal aantal verwerkte aanvragen" dataDxfId="120">
-      <calculatedColumnFormula>'07022024'!V9</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{6671B882-034A-405C-A090-CF294AE28278}" name="Totaal tijdsduur" dataDxfId="119">
-      <calculatedColumnFormula>'07022024'!W9</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{AF469671-29D2-49A9-B112-F820CEBD082B}" name="Datum" dataDxfId="103"/>
+    <tableColumn id="11" xr3:uid="{A34B367B-B159-47BE-AA9E-965A50DBB295}" name="pagina" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{69EE4AED-6A60-4263-8DC6-03FE26FAB4D4}" name="Aantal toevoegingen" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{ABB99517-6263-4345-BC2E-30BA3081FFFD}" name="Tijdsduur voor toevoeging" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{A1FC9AD1-7AE0-4C8B-B6D4-0719B33435B8}" name="Aantal wijzigingen" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{304D0823-9FE4-4A15-A9E5-7CDDB762BD2C}" name="Tijdsduur voor wijziging" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{6DC07AC1-7CDC-41A7-9CA7-9F3ED9DC98EC}" name="Aantal verwijderingen" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{F5340273-C17A-4CF4-82A4-E6197D7F59C5}" name="Tijdsduur voor verwijderen" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{6E3BA90F-2367-4B93-B182-CF41C2BF8516}" name="Tijdsduur updates" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{5DF10489-E8E0-4A74-8DD3-8F23E10DEF43}" name="Totaal aantal verwerkte aanvragen" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{02DEF440-0AB5-4555-A8D2-E50593732736}" name="Totaal tijdsduur" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3465FE0-A033-48A4-9893-A41D62201A03}" name="Table2171819" displayName="Table2171819" ref="A20:K36" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
-  <autoFilter ref="A20:K36" xr:uid="{A3465FE0-A033-48A4-9893-A41D62201A03}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AF469671-29D2-49A9-B112-F820CEBD082B}" name="Datum" dataDxfId="116"/>
-    <tableColumn id="11" xr3:uid="{A34B367B-B159-47BE-AA9E-965A50DBB295}" name="pagina" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{69EE4AED-6A60-4263-8DC6-03FE26FAB4D4}" name="Aantal toevoegingen" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{ABB99517-6263-4345-BC2E-30BA3081FFFD}" name="Tijdsduur voor toevoeging" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{A1FC9AD1-7AE0-4C8B-B6D4-0719B33435B8}" name="Aantal wijzigingen" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{304D0823-9FE4-4A15-A9E5-7CDDB762BD2C}" name="Tijdsduur voor wijziging" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{6DC07AC1-7CDC-41A7-9CA7-9F3ED9DC98EC}" name="Aantal verwijderingen" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{F5340273-C17A-4CF4-82A4-E6197D7F59C5}" name="Tijdsduur voor verwijderen" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{6E3BA90F-2367-4B93-B182-CF41C2BF8516}" name="Tijdsduur updates" dataDxfId="108"/>
-    <tableColumn id="9" xr3:uid="{5DF10489-E8E0-4A74-8DD3-8F23E10DEF43}" name="Totaal aantal verwerkte aanvragen" dataDxfId="107"/>
-    <tableColumn id="10" xr3:uid="{02DEF440-0AB5-4555-A8D2-E50593732736}" name="Totaal tijdsduur" dataDxfId="106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23B30128-1820-441D-BB0D-FBF52DB72736}" name="Table21720" displayName="Table21720" ref="I1:J17" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+  <autoFilter ref="I1:J17" xr:uid="{23B30128-1820-441D-BB0D-FBF52DB72736}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EB7A673D-6108-49C9-8212-C72CB8A351FA}" name="Datum" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{4485A617-059B-497E-BC94-78C71104CFE4}" name="Totaal tijdsduur" dataDxfId="89"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2B706CBB-C7F5-4D1E-B485-694D33BA2DF8}" name="Table217181921" displayName="Table217181921" ref="Q35:S51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+  <autoFilter ref="Q35:S51" xr:uid="{2B706CBB-C7F5-4D1E-B485-694D33BA2DF8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1061545B-5240-4FEF-BED1-8A7CDDB7435B}" name="Datum" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{1C27CBF0-6C42-4026-BD39-452445E56AD4}" name="Aantal toevoegingen" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{D8B04F43-EBBB-4D50-83D0-CE34B2721EAB}" name="Tijdsduur voor toevoeging" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23B30128-1820-441D-BB0D-FBF52DB72736}" name="Table21720" displayName="Table21720" ref="AC6:AD22" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="AC6:AD22" xr:uid="{23B30128-1820-441D-BB0D-FBF52DB72736}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EB7A673D-6108-49C9-8212-C72CB8A351FA}" name="Datum" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{4485A617-059B-497E-BC94-78C71104CFE4}" name="Totaal tijdsduur" dataDxfId="19"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2B706CBB-C7F5-4D1E-B485-694D33BA2DF8}" name="Table217181921" displayName="Table217181921" ref="Q35:S51" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="Q35:S51" xr:uid="{2B706CBB-C7F5-4D1E-B485-694D33BA2DF8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C67C4ACD-1705-48BF-A145-91F0AF728CB3}" name="Table217181922" displayName="Table217181922" ref="Q53:S69" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="Q53:S69" xr:uid="{C67C4ACD-1705-48BF-A145-91F0AF728CB3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1061545B-5240-4FEF-BED1-8A7CDDB7435B}" name="Datum" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{1C27CBF0-6C42-4026-BD39-452445E56AD4}" name="Aantal toevoegingen" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D8B04F43-EBBB-4D50-83D0-CE34B2721EAB}" name="Tijdsduur voor toevoeging" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{2288DC6B-B0A2-4377-B90A-9634BEC65026}" name="Datum" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{7B8146A0-9F51-484B-B02C-4E3914EF5023}" name="Aantal wijzigingen" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{CB28C659-1513-478B-AEC0-2CF804ACF1D2}" name="Tijdsduur voor wijziging" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C67C4ACD-1705-48BF-A145-91F0AF728CB3}" name="Table217181922" displayName="Table217181922" ref="Q53:S69" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="Q53:S69" xr:uid="{C67C4ACD-1705-48BF-A145-91F0AF728CB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66823F71-B1F4-4062-9BB6-23B2279B0820}" name="Table217181923" displayName="Table217181923" ref="Q71:S87" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="Q71:S87" xr:uid="{66823F71-B1F4-4062-9BB6-23B2279B0820}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2288DC6B-B0A2-4377-B90A-9634BEC65026}" name="Datum" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{7B8146A0-9F51-484B-B02C-4E3914EF5023}" name="Aantal wijzigingen" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CB28C659-1513-478B-AEC0-2CF804ACF1D2}" name="Tijdsduur voor wijziging" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5C5238F3-11EC-419E-A846-7F335396816C}" name="Datum" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{83B91873-0A9F-4703-84EF-597AE96C1891}" name="Aantal verwijderingen" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{938E7930-DF78-4CAE-BB14-798E8FF940D2}" name="Tijdsduur voor verwijderen" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66823F71-B1F4-4062-9BB6-23B2279B0820}" name="Table217181923" displayName="Table217181923" ref="Q71:S87" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="Q71:S87" xr:uid="{66823F71-B1F4-4062-9BB6-23B2279B0820}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C5238F3-11EC-419E-A846-7F335396816C}" name="Datum" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{83B91873-0A9F-4703-84EF-597AE96C1891}" name="Aantal verwijderingen" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{938E7930-DF78-4CAE-BB14-798E8FF940D2}" name="Tijdsduur voor verwijderen" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{73125C4B-A693-414E-A608-7D1457B1FF22}" name="Table2172024" displayName="Table2172024" ref="AC24:AD40" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="AC24:AD40" xr:uid="{73125C4B-A693-414E-A608-7D1457B1FF22}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{144BC454-9364-4AB3-9A69-5F940865562F}" name="Datum" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{1D7D2758-EE39-4B03-A299-A39E6718CEF1}" name="Totaal tijdsduur" dataDxfId="70"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{73125C4B-A693-414E-A608-7D1457B1FF22}" name="Table2172024" displayName="Table2172024" ref="AC24:AD40" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="AC24:AD40" xr:uid="{73125C4B-A693-414E-A608-7D1457B1FF22}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{144BC454-9364-4AB3-9A69-5F940865562F}" name="Datum" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{1D7D2758-EE39-4B03-A299-A39E6718CEF1}" name="Totaal tijdsduur" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE7BDC3D-39E6-48BA-9C89-45C7D5EF874F}" name="Table145" displayName="Table145" ref="A1:F28" totalsRowShown="0" headerRowDxfId="69">
+  <autoFilter ref="A1:F28" xr:uid="{9BE52DD0-0866-4682-8AA0-7D0A8298E126}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1B3A7ABB-C371-4A45-9D2D-B19C89F85E2F}" name="Datum" dataDxfId="68">
+      <calculatedColumnFormula>NOW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{CDA06A3E-15DF-45A5-8BCF-D4AA44DF6789}" name="Actie" dataDxfId="67">
+      <calculatedColumnFormula>IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9293EEFE-FF0E-4252-9E8F-CEAC7F06C8F0}" name="Command" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{D4C11C17-9153-45C4-9580-7FDF4B628FE5}" name="Tijdsduur" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{C151002B-3F02-4C8F-9EBC-A004DFEAE77E}" name="Opmerking1"/>
+    <tableColumn id="6" xr3:uid="{9C5D85F2-B743-4407-AFDC-880181162DBA}" name="Opmerking2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -14753,10 +14651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A2ECAB-4AA2-46F6-AD75-3E321B8516FA}">
-  <dimension ref="A1:AJ90"/>
+  <dimension ref="A1:AI87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14768,7 +14666,8 @@
     <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.81640625" customWidth="1"/>
@@ -14777,7 +14676,7 @@
     <col min="30" max="30" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14802,38 +14701,20 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>369</v>
       </c>
@@ -14855,50 +14736,23 @@
       <c r="G2" s="10">
         <v>1.5034722222222222E-2</v>
       </c>
-      <c r="I2" s="2">
-        <v>45329</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="1" cm="1">
-        <f t="array" aca="1" ref="K2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>3</v>
-      </c>
-      <c r="L2" s="10" cm="1">
-        <f t="array" aca="1" ref="L2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>4.6296296296296294E-3</v>
-      </c>
-      <c r="M2" s="1" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>5</v>
-      </c>
-      <c r="N2" s="10" cm="1">
-        <f t="array" aca="1" ref="N2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>3.6689814814814814E-3</v>
-      </c>
-      <c r="O2" s="1" cm="1">
-        <f t="array" aca="1" ref="O2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>18</v>
-      </c>
-      <c r="P2" s="10" cm="1">
-        <f t="array" aca="1" ref="P2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>3.7500000000000003E-3</v>
-      </c>
-      <c r="Q2" s="10" cm="1">
-        <f t="array" aca="1" ref="Q2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>2.9861111111111113E-3</v>
-      </c>
-      <c r="R2" s="1" cm="1">
-        <f t="array" aca="1" ref="R2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>26</v>
-      </c>
-      <c r="S2" s="10" cm="1">
-        <f t="array" aca="1" ref="S2" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="10">
         <v>1.5034722222222222E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K2" s="1"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>370</v>
       </c>
@@ -14921,51 +14775,23 @@
       <c r="G3" s="10">
         <v>1.7557870370370373E-2</v>
       </c>
-      <c r="I3" s="2">
-        <v>45330</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>08022024</v>
-      </c>
-      <c r="K3" s="1" cm="1">
-        <f t="array" aca="1" ref="K3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>16</v>
-      </c>
-      <c r="L3" s="10" cm="1">
-        <f t="array" aca="1" ref="L3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>9.8379629629629615E-3</v>
-      </c>
-      <c r="M3" s="1" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>13</v>
-      </c>
-      <c r="N3" s="10" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>5.9143518518518529E-3</v>
-      </c>
-      <c r="O3" s="1" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="10" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10" cm="1">
-        <f t="array" aca="1" ref="Q3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>1.8055555555555557E-3</v>
-      </c>
-      <c r="R3" s="1" cm="1">
-        <f t="array" aca="1" ref="R3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>30</v>
-      </c>
-      <c r="S3" s="10" cm="1">
-        <f t="array" aca="1" ref="S3" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J3" s="10">
         <v>1.7557870370370373E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K3" s="1"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>371</v>
       </c>
@@ -14988,51 +14814,23 @@
       <c r="G4" s="10">
         <v>1.2974537037037038E-2</v>
       </c>
-      <c r="I4" s="2">
-        <v>45331</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>09022024</v>
-      </c>
-      <c r="K4" s="1" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>8</v>
-      </c>
-      <c r="L4" s="10" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>7.465277777777779E-3</v>
-      </c>
-      <c r="M4" s="1" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>2</v>
-      </c>
-      <c r="N4" s="10" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>7.7546296296296304E-4</v>
-      </c>
-      <c r="O4" s="1" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>23</v>
-      </c>
-      <c r="P4" s="10" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>4.7337962962962958E-3</v>
-      </c>
-      <c r="Q4" s="10" cm="1">
-        <f t="array" aca="1" ref="Q4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" cm="1">
-        <f t="array" aca="1" ref="R4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>33</v>
-      </c>
-      <c r="S4" s="10" cm="1">
-        <f t="array" aca="1" ref="S4" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="10">
         <v>1.2974537037037038E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K4" s="1"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>372</v>
       </c>
@@ -15055,51 +14853,23 @@
       <c r="G5" s="10">
         <v>2.0914351851851851E-2</v>
       </c>
-      <c r="I5" s="2">
-        <v>45334</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>12022024</v>
-      </c>
-      <c r="K5" s="1" cm="1">
-        <f t="array" aca="1" ref="K5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>18</v>
-      </c>
-      <c r="L5" s="10" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>1.1342592592592592E-2</v>
-      </c>
-      <c r="M5" s="1" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>3</v>
-      </c>
-      <c r="N5" s="10" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>1.4699074074074074E-3</v>
-      </c>
-      <c r="O5" s="1" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>6</v>
-      </c>
-      <c r="P5" s="10" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>4.363425925925926E-3</v>
-      </c>
-      <c r="Q5" s="10" cm="1">
-        <f t="array" aca="1" ref="Q5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>3.7384259259259263E-3</v>
-      </c>
-      <c r="R5" s="1" cm="1">
-        <f t="array" aca="1" ref="R5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>28</v>
-      </c>
-      <c r="S5" s="10" cm="1">
-        <f t="array" aca="1" ref="S5" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J5" s="10">
         <v>2.0914351851851851E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="K5" s="1"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>373</v>
       </c>
@@ -15122,62 +14892,28 @@
       <c r="G6" s="10">
         <v>3.0208333333333333E-3</v>
       </c>
-      <c r="I6" s="2">
-        <v>45335</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>13022024</v>
-      </c>
-      <c r="K6" s="1" cm="1">
-        <f t="array" aca="1" ref="K6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>6</v>
-      </c>
-      <c r="L6" s="10" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>2.638888888888889E-3</v>
-      </c>
-      <c r="M6" s="1" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="10" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="O6" s="1" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="10" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" cm="1">
-        <f t="array" aca="1" ref="Q6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" cm="1">
-        <f t="array" aca="1" ref="R6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>7</v>
-      </c>
-      <c r="S6" s="10" cm="1">
-        <f t="array" aca="1" ref="S6" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J6" s="10">
         <v>3.0208333333333333E-3</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="10"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>374</v>
       </c>
@@ -15200,62 +14936,28 @@
       <c r="G7" s="10">
         <v>1.5034722222222222E-2</v>
       </c>
-      <c r="I7" s="2">
-        <v>45336</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>14022024</v>
-      </c>
-      <c r="K7" s="1" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>10</v>
-      </c>
-      <c r="L7" s="10" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>7.5925925925925935E-3</v>
-      </c>
-      <c r="M7" s="1" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="10" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>7.2916666666666659E-4</v>
-      </c>
-      <c r="O7" s="1" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="10" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>4.2824074074074075E-3</v>
-      </c>
-      <c r="Q7" s="10" cm="1">
-        <f t="array" aca="1" ref="Q7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>2.4305555555555556E-3</v>
-      </c>
-      <c r="R7" s="1" cm="1">
-        <f t="array" aca="1" ref="R7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>16</v>
-      </c>
-      <c r="S7" s="10" cm="1">
-        <f t="array" aca="1" ref="S7" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J7" s="10">
         <v>1.5034722222222222E-2</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>1.5034722222222222E-2</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>375</v>
       </c>
@@ -15278,62 +14980,28 @@
       <c r="G8" s="10">
         <v>1.5416666666666667E-2</v>
       </c>
-      <c r="I8" s="2">
-        <v>45337</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>15022024</v>
-      </c>
-      <c r="K8" s="1" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>15</v>
-      </c>
-      <c r="L8" s="10" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>7.5925925925925935E-3</v>
-      </c>
-      <c r="M8" s="1" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>8</v>
-      </c>
-      <c r="N8" s="10" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>4.0277777777777777E-3</v>
-      </c>
-      <c r="O8" s="1" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>1</v>
-      </c>
-      <c r="P8" s="10" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>1.9675925925925926E-4</v>
-      </c>
-      <c r="Q8" s="10" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>3.5995370370370369E-3</v>
-      </c>
-      <c r="R8" s="1" cm="1">
-        <f t="array" aca="1" ref="R8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>25</v>
-      </c>
-      <c r="S8" s="10" cm="1">
-        <f t="array" aca="1" ref="S8" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J8" s="10">
         <v>1.5416666666666667E-2</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>1.7557870370370373E-2</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -15356,62 +15024,28 @@
       <c r="G9" s="10">
         <v>1.1168981481481483E-2</v>
       </c>
-      <c r="I9" s="2">
-        <v>45338</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>16022024</v>
-      </c>
-      <c r="K9" s="1" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>6</v>
-      </c>
-      <c r="L9" s="10" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="M9" s="1" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="10" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>9.6064814814814819E-4</v>
-      </c>
-      <c r="O9" s="1" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>23</v>
-      </c>
-      <c r="P9" s="10" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>4.8032407407407416E-3</v>
-      </c>
-      <c r="Q9" s="10" cm="1">
-        <f t="array" aca="1" ref="Q9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>3.2407407407407406E-3</v>
-      </c>
-      <c r="R9" s="1" cm="1">
-        <f t="array" aca="1" ref="R9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>33</v>
-      </c>
-      <c r="S9" s="10" cm="1">
-        <f t="array" aca="1" ref="S9" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J9" s="10">
         <v>1.1168981481481483E-2</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>1.2974537037037038E-2</v>
-      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>377</v>
       </c>
@@ -15434,62 +15068,28 @@
       <c r="G10" s="10">
         <v>8.0787037037037025E-3</v>
       </c>
-      <c r="I10" s="2">
-        <v>45341</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>19022024</v>
-      </c>
-      <c r="K10" s="1" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>9</v>
-      </c>
-      <c r="L10" s="10" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>4.8726851851851848E-3</v>
-      </c>
-      <c r="M10" s="1" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>8</v>
-      </c>
-      <c r="N10" s="10" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>2.5925925925925925E-3</v>
-      </c>
-      <c r="O10" s="1" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>3</v>
-      </c>
-      <c r="P10" s="10" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>6.134259259259259E-4</v>
-      </c>
-      <c r="Q10" s="10" cm="1">
-        <f t="array" aca="1" ref="Q10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" cm="1">
-        <f t="array" aca="1" ref="R10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>20</v>
-      </c>
-      <c r="S10" s="10" cm="1">
-        <f t="array" aca="1" ref="S10" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J10" s="10">
         <v>8.0787037037037025E-3</v>
       </c>
-      <c r="AC10" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>2.0914351851851851E-2</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>378</v>
       </c>
@@ -15512,62 +15112,28 @@
       <c r="G11" s="10">
         <v>9.4560185185185181E-3</v>
       </c>
-      <c r="I11" s="2">
-        <v>45342</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>20022024</v>
-      </c>
-      <c r="K11" s="1" cm="1">
-        <f t="array" aca="1" ref="K11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>12</v>
-      </c>
-      <c r="L11" s="10" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>4.6180555555555558E-3</v>
-      </c>
-      <c r="M11" s="1" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>11</v>
-      </c>
-      <c r="N11" s="10" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>3.634259259259259E-3</v>
-      </c>
-      <c r="O11" s="1" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10" cm="1">
-        <f t="array" aca="1" ref="Q11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>1.2037037037037038E-3</v>
-      </c>
-      <c r="R11" s="1" cm="1">
-        <f t="array" aca="1" ref="R11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>24</v>
-      </c>
-      <c r="S11" s="10" cm="1">
-        <f t="array" aca="1" ref="S11" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I11" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="10">
         <v>9.4560185185185181E-3</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>3.0208333333333333E-3</v>
-      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>379</v>
       </c>
@@ -15590,54 +15156,11 @@
       <c r="G12" s="10">
         <v>1.329861111111111E-2</v>
       </c>
-      <c r="I12" s="2">
-        <v>45343</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>21022024</v>
-      </c>
-      <c r="K12" s="1" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>8</v>
-      </c>
-      <c r="L12" s="10" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>5.7060185185185183E-3</v>
-      </c>
-      <c r="M12" s="1" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>13</v>
-      </c>
-      <c r="N12" s="10" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>5.6365740740740734E-3</v>
-      </c>
-      <c r="O12" s="1" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>20</v>
-      </c>
-      <c r="P12" s="10" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>1.9560185185185184E-3</v>
-      </c>
-      <c r="Q12" s="10" cm="1">
-        <f t="array" aca="1" ref="Q12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" cm="1">
-        <f t="array" aca="1" ref="R12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>42</v>
-      </c>
-      <c r="S12" s="10" cm="1">
-        <f t="array" aca="1" ref="S12" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J12" s="10">
         <v>1.329861111111111E-2</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>1.5034722222222222E-2</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
@@ -15645,7 +15168,7 @@
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>380</v>
       </c>
@@ -15668,54 +15191,11 @@
       <c r="G13" s="10">
         <v>1.0949074074074075E-2</v>
       </c>
-      <c r="I13" s="2">
-        <v>45344</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>22022024</v>
-      </c>
-      <c r="K13" s="1" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>23</v>
-      </c>
-      <c r="L13" s="10" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>4.386574074074074E-3</v>
-      </c>
-      <c r="M13" s="1" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>7</v>
-      </c>
-      <c r="N13" s="10" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>3.2175925925925931E-3</v>
-      </c>
-      <c r="O13" s="1" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>3</v>
-      </c>
-      <c r="P13" s="10" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>3.8194444444444441E-4</v>
-      </c>
-      <c r="Q13" s="10" cm="1">
-        <f t="array" aca="1" ref="Q13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>2.9629629629629628E-3</v>
-      </c>
-      <c r="R13" s="1" cm="1">
-        <f t="array" aca="1" ref="R13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>34</v>
-      </c>
-      <c r="S13" s="10" cm="1">
-        <f t="array" aca="1" ref="S13" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J13" s="10">
         <v>1.0949074074074075E-2</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD13" s="10">
-        <v>1.5416666666666667E-2</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
@@ -15723,7 +15203,7 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
     </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>381</v>
       </c>
@@ -15746,54 +15226,11 @@
       <c r="G14" s="10">
         <v>8.6921296296296295E-3</v>
       </c>
-      <c r="I14" s="2">
-        <v>45345</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f>TEXT(Table21718[[#This Row],[Datum]],"ddmmyyyy")</f>
-        <v>23022024</v>
-      </c>
-      <c r="K14" s="1" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J5")</f>
-        <v>2</v>
-      </c>
-      <c r="L14" s="10" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K5")</f>
-        <v>5.6712962962962967E-4</v>
-      </c>
-      <c r="M14" s="1" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J6")</f>
-        <v>3</v>
-      </c>
-      <c r="N14" s="10" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k6")</f>
-        <v>2.6157407407407405E-3</v>
-      </c>
-      <c r="O14" s="1" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J7")</f>
-        <v>4</v>
-      </c>
-      <c r="P14" s="10" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K7")</f>
-        <v>6.8287037037037036E-4</v>
-      </c>
-      <c r="Q14" s="10" cm="1">
-        <f t="array" aca="1" ref="Q14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!K8")</f>
-        <v>4.8263888888888887E-3</v>
-      </c>
-      <c r="R14" s="1" cm="1">
-        <f t="array" aca="1" ref="R14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!J9")</f>
-        <v>10</v>
-      </c>
-      <c r="S14" s="10" cm="1">
-        <f t="array" aca="1" ref="S14" ca="1">INDIRECT("'" &amp; Table21718[[#This Row],[pagina]] &amp; "'!k9")</f>
+      <c r="I14" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" s="10">
         <v>8.6921296296296295E-3</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>1.1168981481481483E-2</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
@@ -15801,7 +15238,7 @@
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
     </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>236</v>
       </c>
@@ -15821,51 +15258,11 @@
       <c r="G15" s="16">
         <v>0.16159722222222223</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14">
-        <f ca="1">SUMIF(K2:K14,"&lt;&gt;#REF!")</f>
-        <v>136</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" ref="L15:R15" ca="1" si="0">SUMIF(L2:L14,"&lt;&gt;#REF!")</f>
-        <v>7.3414351851851856E-2</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="N15" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5624999999999997E-2</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5763888888888892E-2</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6793981481481481E-2</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="S15" s="16">
-        <f ca="1">SUM(L15,N15,P15,Q15)</f>
+      <c r="J15" s="29">
         <v>0.16159722222222223</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD15" s="10">
-        <v>8.0787037037037025E-3</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
@@ -15873,7 +15270,7 @@
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
     </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>367</v>
       </c>
@@ -15893,60 +15290,19 @@
       <c r="G16" s="26">
         <v>1.2430555555555556E-2</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24">
-        <f ca="1">AVERAGE(K2:K14)</f>
-        <v>10.461538461538462</v>
-      </c>
-      <c r="L16" s="25">
-        <f t="shared" ref="L16:S16" ca="1" si="1">AVERAGE(L2:L14)</f>
-        <v>5.647257834757835E-3</v>
-      </c>
-      <c r="M16" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.0769230769230766</v>
-      </c>
-      <c r="N16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.740384615384615E-3</v>
-      </c>
-      <c r="O16" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9818376068376073E-3</v>
-      </c>
-      <c r="Q16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0610754985754985E-3</v>
-      </c>
-      <c r="R16" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.23076923076923</v>
-      </c>
-      <c r="S16" s="26">
-        <f t="shared" ca="1" si="1"/>
+      <c r="J16" s="29">
         <v>1.2430555555555556E-2</v>
       </c>
-      <c r="AC16" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>9.4560185185185181E-3</v>
-      </c>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="28"/>
-    </row>
-    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+    </row>
+    <row r="17" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>368</v>
       </c>
@@ -15966,89 +15322,34 @@
       <c r="G17" s="21">
         <v>1.2974537037037038E-2</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19">
-        <f ca="1">MEDIAN(K2:K14)</f>
-        <v>9</v>
-      </c>
-      <c r="L17" s="20">
-        <f t="shared" ref="L17:S17" ca="1" si="2">MEDIAN(L2:L14)</f>
-        <v>4.8726851851851848E-3</v>
-      </c>
-      <c r="M17" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N17" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6157407407407405E-3</v>
-      </c>
-      <c r="O17" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8287037037037036E-4</v>
-      </c>
-      <c r="Q17" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4305555555555556E-3</v>
-      </c>
-      <c r="R17" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="S17" s="21">
-        <f t="shared" ca="1" si="2"/>
+      <c r="J17" s="29">
         <v>1.2974537037037038E-2</v>
       </c>
-      <c r="AC17" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>1.329861111111111E-2</v>
-      </c>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="28"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="AC18" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>1.0949074074074075E-2</v>
-      </c>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="28"/>
-    </row>
-    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AC19" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>8.6921296296296295E-3</v>
-      </c>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="28"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -16082,20 +15383,13 @@
       <c r="K20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AC20" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD20" s="33">
-        <v>0.16159722222222223</v>
-      </c>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="28"/>
-    </row>
-    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>369</v>
       </c>
@@ -16129,20 +15423,13 @@
       <c r="K21" s="10">
         <v>1.5034722222222222E-2</v>
       </c>
-      <c r="AC21" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD21" s="33">
-        <v>1.2430555555555556E-2</v>
-      </c>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="28"/>
-    </row>
-    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>370</v>
       </c>
@@ -16177,20 +15464,13 @@
       <c r="K22" s="10">
         <v>1.7557870370370373E-2</v>
       </c>
-      <c r="AC22" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD22" s="33">
-        <v>1.2974537037037038E-2</v>
-      </c>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="28"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>371</v>
       </c>
@@ -16225,14 +15505,8 @@
       <c r="K23" s="10">
         <v>1.2974537037037038E-2</v>
       </c>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>372</v>
       </c>
@@ -16273,14 +15547,8 @@
       <c r="AD24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>373</v>
       </c>
@@ -16322,7 +15590,7 @@
         <v>1.5034722222222222E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>374</v>
       </c>
@@ -16364,7 +15632,7 @@
         <v>1.7557870370370373E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>375</v>
       </c>
@@ -16406,7 +15674,7 @@
         <v>1.2974537037037038E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>376</v>
       </c>
@@ -16448,7 +15716,7 @@
         <v>2.0914351851851851E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>377</v>
       </c>
@@ -16490,7 +15758,7 @@
         <v>3.0208333333333333E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>378</v>
       </c>
@@ -16532,7 +15800,7 @@
         <v>1.5034722222222222E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>379</v>
       </c>
@@ -16574,7 +15842,7 @@
         <v>1.5416666666666667E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>380</v>
       </c>
@@ -17015,14 +16283,13 @@
         <v>5.7060185185185183E-3</v>
       </c>
       <c r="T46" s="10"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="28"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="10"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="Q47" s="2" t="s">
@@ -17035,14 +16302,13 @@
         <v>4.386574074074074E-3</v>
       </c>
       <c r="T47" s="10"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="28"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="10"/>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q48" s="2" t="s">
@@ -17055,16 +16321,15 @@
         <v>5.6712962962962967E-4</v>
       </c>
       <c r="T48" s="10"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="28"/>
-    </row>
-    <row r="49" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U48" s="1"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q49" s="12" t="s">
         <v>236</v>
       </c>
@@ -17075,16 +16340,15 @@
         <v>7.3414351851851856E-2</v>
       </c>
       <c r="T49" s="10"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="28"/>
-    </row>
-    <row r="50" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U49" s="1"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q50" s="22" t="s">
         <v>367</v>
       </c>
@@ -17095,16 +16359,15 @@
         <v>5.647257834757835E-3</v>
       </c>
       <c r="T50" s="10"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="28"/>
-    </row>
-    <row r="51" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U50" s="27"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q51" s="17" t="s">
         <v>368</v>
       </c>
@@ -17115,26 +16378,15 @@
         <v>4.8726851851851848E-3</v>
       </c>
       <c r="T51" s="10"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="28"/>
-    </row>
-    <row r="52" spans="17:28" x14ac:dyDescent="0.35">
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-    </row>
-    <row r="53" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="U51" s="1"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="53" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q53" s="1" t="s">
         <v>0</v>
       </c>
@@ -17145,16 +16397,15 @@
         <v>46</v>
       </c>
       <c r="T53" s="1"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="28"/>
-    </row>
-    <row r="54" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="4"/>
+    </row>
+    <row r="54" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q54" s="2" t="s">
         <v>369</v>
       </c>
@@ -17173,7 +16424,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="10"/>
     </row>
-    <row r="55" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q55" s="2" t="s">
         <v>370</v>
       </c>
@@ -17192,7 +16443,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="10"/>
     </row>
-    <row r="56" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q56" s="2" t="s">
         <v>371</v>
       </c>
@@ -17211,7 +16462,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="10"/>
     </row>
-    <row r="57" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q57" s="2" t="s">
         <v>372</v>
       </c>
@@ -17230,7 +16481,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="58" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q58" s="2" t="s">
         <v>373</v>
       </c>
@@ -17249,7 +16500,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="10"/>
     </row>
-    <row r="59" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q59" s="2" t="s">
         <v>374</v>
       </c>
@@ -17268,7 +16519,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="10"/>
     </row>
-    <row r="60" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q60" s="2" t="s">
         <v>375</v>
       </c>
@@ -17287,7 +16538,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="10"/>
     </row>
-    <row r="61" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q61" s="2" t="s">
         <v>376</v>
       </c>
@@ -17306,7 +16557,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="10"/>
     </row>
-    <row r="62" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q62" s="2" t="s">
         <v>377</v>
       </c>
@@ -17325,7 +16576,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="10"/>
     </row>
-    <row r="63" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q63" s="2" t="s">
         <v>378</v>
       </c>
@@ -17344,7 +16595,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="10"/>
     </row>
-    <row r="64" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q64" s="2" t="s">
         <v>379</v>
       </c>
@@ -17363,7 +16614,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="10"/>
     </row>
-    <row r="65" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q65" s="2" t="s">
         <v>380</v>
       </c>
@@ -17373,17 +16624,16 @@
       <c r="S65" s="10">
         <v>3.2175925925925931E-3</v>
       </c>
-      <c r="T65" s="27"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="28"/>
-    </row>
-    <row r="66" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T65" s="10"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="10"/>
+    </row>
+    <row r="66" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q66" s="2" t="s">
         <v>381</v>
       </c>
@@ -17393,17 +16643,16 @@
       <c r="S66" s="10">
         <v>2.6157407407407405E-3</v>
       </c>
-      <c r="T66" s="27"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="28"/>
-    </row>
-    <row r="67" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T66" s="10"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="10"/>
+    </row>
+    <row r="67" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q67" s="12" t="s">
         <v>236</v>
       </c>
@@ -17413,17 +16662,16 @@
       <c r="S67" s="15">
         <v>3.5624999999999997E-2</v>
       </c>
-      <c r="T67" s="27"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="28"/>
-    </row>
-    <row r="68" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T67" s="10"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="10"/>
+    </row>
+    <row r="68" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q68" s="22" t="s">
         <v>367</v>
       </c>
@@ -17433,17 +16681,16 @@
       <c r="S68" s="25">
         <v>2.740384615384615E-3</v>
       </c>
-      <c r="T68" s="27"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="28"/>
-    </row>
-    <row r="69" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T68" s="10"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q69" s="17" t="s">
         <v>368</v>
       </c>
@@ -17453,28 +16700,16 @@
       <c r="S69" s="20">
         <v>2.6157407407407405E-3</v>
       </c>
-      <c r="T69" s="27"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="28"/>
-    </row>
-    <row r="70" spans="17:28" x14ac:dyDescent="0.35">
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-    </row>
-    <row r="71" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T69" s="10"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="71" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q71" s="1" t="s">
         <v>0</v>
       </c>
@@ -17484,17 +16719,16 @@
       <c r="S71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="28"/>
-    </row>
-    <row r="72" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="4"/>
+    </row>
+    <row r="72" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q72" s="2" t="s">
         <v>369</v>
       </c>
@@ -17504,17 +16738,16 @@
       <c r="S72" s="10">
         <v>3.7500000000000003E-3</v>
       </c>
-      <c r="T72" s="27"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="28"/>
-    </row>
-    <row r="73" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T72" s="10"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="10"/>
+    </row>
+    <row r="73" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q73" s="2" t="s">
         <v>370</v>
       </c>
@@ -17524,17 +16757,16 @@
       <c r="S73" s="10">
         <v>0</v>
       </c>
-      <c r="T73" s="27"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="28"/>
-    </row>
-    <row r="74" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T73" s="10"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="10"/>
+    </row>
+    <row r="74" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q74" s="2" t="s">
         <v>371</v>
       </c>
@@ -17544,17 +16776,16 @@
       <c r="S74" s="10">
         <v>4.7337962962962958E-3</v>
       </c>
-      <c r="T74" s="27"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="29"/>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="28"/>
-    </row>
-    <row r="75" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T74" s="10"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q75" s="2" t="s">
         <v>372</v>
       </c>
@@ -17564,17 +16795,16 @@
       <c r="S75" s="10">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="T75" s="27"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="28"/>
-    </row>
-    <row r="76" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T75" s="10"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="10"/>
+    </row>
+    <row r="76" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q76" s="2" t="s">
         <v>373</v>
       </c>
@@ -17584,17 +16814,16 @@
       <c r="S76" s="10">
         <v>0</v>
       </c>
-      <c r="T76" s="27"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="27"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="29"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="28"/>
-    </row>
-    <row r="77" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T76" s="10"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="10"/>
+    </row>
+    <row r="77" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q77" s="2" t="s">
         <v>374</v>
       </c>
@@ -17604,17 +16833,16 @@
       <c r="S77" s="10">
         <v>4.2824074074074075E-3</v>
       </c>
-      <c r="T77" s="27"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="28"/>
-    </row>
-    <row r="78" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T77" s="10"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="10"/>
+    </row>
+    <row r="78" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q78" s="2" t="s">
         <v>375</v>
       </c>
@@ -17624,17 +16852,16 @@
       <c r="S78" s="10">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="T78" s="27"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="28"/>
-    </row>
-    <row r="79" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T78" s="10"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="10"/>
+    </row>
+    <row r="79" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q79" s="2" t="s">
         <v>376</v>
       </c>
@@ -17644,17 +16871,16 @@
       <c r="S79" s="10">
         <v>4.8032407407407416E-3</v>
       </c>
-      <c r="T79" s="27"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="28"/>
-    </row>
-    <row r="80" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T79" s="10"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q80" s="2" t="s">
         <v>377</v>
       </c>
@@ -17664,17 +16890,16 @@
       <c r="S80" s="10">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="T80" s="27"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="28"/>
-    </row>
-    <row r="81" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T80" s="10"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q81" s="2" t="s">
         <v>378</v>
       </c>
@@ -17684,17 +16909,16 @@
       <c r="S81" s="10">
         <v>0</v>
       </c>
-      <c r="T81" s="27"/>
-      <c r="U81" s="29"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="29"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="28"/>
-    </row>
-    <row r="82" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T81" s="10"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="10"/>
+    </row>
+    <row r="82" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q82" s="2" t="s">
         <v>379</v>
       </c>
@@ -17704,17 +16928,16 @@
       <c r="S82" s="10">
         <v>1.9560185185185184E-3</v>
       </c>
-      <c r="T82" s="27"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="28"/>
-    </row>
-    <row r="83" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="T82" s="10"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q83" s="2" t="s">
         <v>380</v>
       </c>
@@ -17724,17 +16947,16 @@
       <c r="S83" s="10">
         <v>3.8194444444444441E-4</v>
       </c>
-      <c r="T83" s="27"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="28"/>
-    </row>
-    <row r="84" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T83" s="10"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q84" s="2" t="s">
         <v>381</v>
       </c>
@@ -17744,17 +16966,16 @@
       <c r="S84" s="10">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="T84" s="27"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="29"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="29"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="28"/>
-    </row>
-    <row r="85" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T84" s="10"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q85" s="12" t="s">
         <v>236</v>
       </c>
@@ -17764,17 +16985,16 @@
       <c r="S85" s="15">
         <v>2.5763888888888892E-2</v>
       </c>
-      <c r="T85" s="27"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="28"/>
-    </row>
-    <row r="86" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T85" s="10"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q86" s="22" t="s">
         <v>367</v>
       </c>
@@ -17784,17 +17004,16 @@
       <c r="S86" s="25">
         <v>1.9818376068376073E-3</v>
       </c>
-      <c r="T86" s="27"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="30"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="28"/>
-    </row>
-    <row r="87" spans="17:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T86" s="10"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="10"/>
+    </row>
+    <row r="87" spans="17:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q87" s="17" t="s">
         <v>368</v>
       </c>
@@ -17804,55 +17023,21 @@
       <c r="S87" s="20">
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="T87" s="27"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="28"/>
-    </row>
-    <row r="88" spans="17:28" x14ac:dyDescent="0.35">
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-    </row>
-    <row r="89" spans="17:28" x14ac:dyDescent="0.35">
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-    </row>
-    <row r="90" spans="17:28" x14ac:dyDescent="0.35">
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="8">
+  <tableParts count="7">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -17860,7 +17045,6 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17914,7 +17098,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <f ca="1">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B28" si="0">IF(ISNUMBER(SEARCH("mkh ",C2)),"ADD",IF(ISNUMBER(SEARCH("chh ",C2)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C2)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C2)),"UPDATE",""))))</f>
@@ -17939,7 +17123,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A28" ca="1" si="1">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -17961,7 +17145,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -17989,7 +17173,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18003,7 +17187,7 @@
       </c>
       <c r="H5" s="2">
         <f ca="1">$A$2</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
@@ -18020,7 +17204,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18037,7 +17221,7 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H9" ca="1" si="2">$A$2</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -18054,7 +17238,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18068,7 +17252,7 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>42</v>
@@ -18085,7 +17269,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18099,7 +17283,7 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
@@ -18116,7 +17300,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18130,7 +17314,7 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>43</v>
@@ -18147,7 +17331,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18163,7 +17347,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18179,7 +17363,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18195,7 +17379,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18211,7 +17395,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18227,7 +17411,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18243,7 +17427,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18259,7 +17443,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18275,7 +17459,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18291,7 +17475,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18307,7 +17491,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18323,7 +17507,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18339,7 +17523,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18355,7 +17539,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18371,7 +17555,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18387,7 +17571,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18403,7 +17587,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18422,7 +17606,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18444,7 +17628,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19427,7 +18611,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" ref="A23:A35" ca="1" si="2">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19446,7 +18630,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19462,7 +18646,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19481,7 +18665,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19500,7 +18684,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19519,7 +18703,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -19538,7 +18722,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("mkh ",C29)),"ADD",IF(ISNUMBER(SEARCH("chh ",C29)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C29)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C29)),"UPDATE",""))))</f>
@@ -19557,7 +18741,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B30" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("mkh ",C30)),"ADD",IF(ISNUMBER(SEARCH("chh ",C30)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C30)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C30)),"UPDATE",""))))</f>
@@ -19573,7 +18757,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ref="B31:B35" si="3">IF(ISNUMBER(SEARCH("mkh ",C31)),"ADD",IF(ISNUMBER(SEARCH("chh ",C31)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C31)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C31)),"UPDATE",""))))</f>
@@ -19589,7 +18773,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19605,7 +18789,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19621,7 +18805,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19637,7 +18821,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19653,7 +18837,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <f ca="1">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B36" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("mkh ",C36)),"ADD",IF(ISNUMBER(SEARCH("chh ",C36)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C36)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C36)),"UPDATE",""))))</f>
@@ -20231,7 +19415,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f t="shared" ref="A29:A39" ca="1" si="2">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("mkh ",C29)),"ADD",IF(ISNUMBER(SEARCH("chh ",C29)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C29)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C29)),"UPDATE",""))))</f>
@@ -20247,7 +19431,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B30" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("mkh ",C30)),"ADD",IF(ISNUMBER(SEARCH("chh ",C30)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C30)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C30)),"UPDATE",""))))</f>
@@ -20263,7 +19447,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ref="B31:B39" si="3">IF(ISNUMBER(SEARCH("mkh ",C31)),"ADD",IF(ISNUMBER(SEARCH("chh ",C31)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C31)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C31)),"UPDATE",""))))</f>
@@ -20279,7 +19463,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20295,7 +19479,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20311,7 +19495,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20327,7 +19511,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20343,7 +19527,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20359,7 +19543,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20375,7 +19559,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20391,7 +19575,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20407,7 +19591,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <f t="shared" ref="A40:A42" ca="1" si="4">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ref="B40:B42" si="5">IF(ISNUMBER(SEARCH("mkh ",C40)),"ADD",IF(ISNUMBER(SEARCH("chh ",C40)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C40)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C40)),"UPDATE",""))))</f>
@@ -20423,7 +19607,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="5"/>
@@ -20442,7 +19626,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -20458,7 +19642,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <f ca="1">NOW()</f>
-        <v>45425.833480787034</v>
+        <v>45436.432424421298</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("mkh ",C43)),"ADD",IF(ISNUMBER(SEARCH("chh ",C43)),"CHANGE",IF(ISNUMBER(SEARCH("rmhost ",C43)),"REMOVE",IF(ISNUMBER(SEARCH("Update",C43)),"UPDATE",""))))</f>
